--- a/Clark_Y.xlsx
+++ b/Clark_Y.xlsx
@@ -4791,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5093,6 +5093,76 @@
         <v>0.2281</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9131</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.27169</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.24378</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9491000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.28697</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.25973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9847</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.30243</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.27573</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0199</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.31801</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.29187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0544</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.33367</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.30801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
